--- a/biology/Zoologie/Cynegetis_impunctata/Cynegetis_impunctata.xlsx
+++ b/biology/Zoologie/Cynegetis_impunctata/Cynegetis_impunctata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynegetis impunctata est une espèce d'insecte coléoptère de la famille des coccinellidés.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les adultes mesurent de 3 à 4,5 mm de long. Ils sont d'une forme arrondie et d'une couleur ocre. Ils n'ont généralement pas de points, mais certains spécimens en comportent ou sont d'une couleur plus foncée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes mesurent de 3 à 4,5 mm de long. Ils sont d'une forme arrondie et d'une couleur ocre. Ils n'ont généralement pas de points, mais certains spécimens en comportent ou sont d'une couleur plus foncée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les adultes et les larves sont herbivores et polyphages, ils se nourrissent notamment de Elymus repens, Arrhenatherum elatius et Phalaris arundinacea[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes et les larves sont herbivores et polyphages, ils se nourrissent notamment de Elymus repens, Arrhenatherum elatius et Phalaris arundinacea,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cette espèce en Autriche, Belgique, Allemagne, Norvège, Pologne et en Suède et moins fréquemment dans d'autres pays[2],[4],[5]. Jusqu'en 2012 cette espèce n'a pas été observée sur les îles Britanniques.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cette espèce en Autriche, Belgique, Allemagne, Norvège, Pologne et en Suède et moins fréquemment dans d'autres pays. Jusqu'en 2012 cette espèce n'a pas été observée sur les îles Britanniques.
 </t>
         </is>
       </c>
